--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp10-Acvrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp10-Acvrl1.xlsx
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H2">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I2">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J2">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.792572</v>
+        <v>30.10959799999999</v>
       </c>
       <c r="N2">
-        <v>53.37771600000001</v>
+        <v>90.32879399999999</v>
       </c>
       <c r="O2">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267993</v>
       </c>
       <c r="P2">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267992</v>
       </c>
       <c r="Q2">
-        <v>10.56807606512</v>
+        <v>5.381036806569998</v>
       </c>
       <c r="R2">
-        <v>95.11268458608001</v>
+        <v>48.42933125913</v>
       </c>
       <c r="S2">
-        <v>0.1023428380302031</v>
+        <v>0.05013881702834027</v>
       </c>
       <c r="T2">
-        <v>0.1023428380302031</v>
+        <v>0.05013881702834026</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H3">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I3">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J3">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>41.597088</v>
       </c>
       <c r="O3">
-        <v>0.2670908091676708</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="P3">
-        <v>0.2670908091676709</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="Q3">
-        <v>8.235668796159999</v>
+        <v>2.47800786064</v>
       </c>
       <c r="R3">
-        <v>74.12101916543999</v>
+        <v>22.30207074576</v>
       </c>
       <c r="S3">
-        <v>0.0797554552486304</v>
+        <v>0.02308930178060131</v>
       </c>
       <c r="T3">
-        <v>0.07975545524863042</v>
+        <v>0.02308930178060131</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H4">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I4">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J4">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.60203</v>
+        <v>7.300670666666666</v>
       </c>
       <c r="N4">
-        <v>19.80609</v>
+        <v>21.902012</v>
       </c>
       <c r="O4">
-        <v>0.1271729551007925</v>
+        <v>0.122738392114831</v>
       </c>
       <c r="P4">
-        <v>0.1271729551007925</v>
+        <v>0.1227383921148309</v>
       </c>
       <c r="Q4">
-        <v>3.9213417388</v>
+        <v>1.304739358193333</v>
       </c>
       <c r="R4">
-        <v>35.2920756492</v>
+        <v>11.74265422374</v>
       </c>
       <c r="S4">
-        <v>0.03797486315978046</v>
+        <v>0.01215715303605751</v>
       </c>
       <c r="T4">
-        <v>0.03797486315978048</v>
+        <v>0.0121571530360575</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H5">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I5">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J5">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.870155666666667</v>
+        <v>0.9177576666666667</v>
       </c>
       <c r="N5">
-        <v>5.610467</v>
+        <v>2.753273</v>
       </c>
       <c r="O5">
-        <v>0.036024256573886</v>
+        <v>0.01542928115796745</v>
       </c>
       <c r="P5">
-        <v>0.03602425657388601</v>
+        <v>0.01542928115796744</v>
       </c>
       <c r="Q5">
-        <v>1.110797659773333</v>
+        <v>0.1640170613983333</v>
       </c>
       <c r="R5">
-        <v>9.997178937959999</v>
+        <v>1.476153552585</v>
       </c>
       <c r="S5">
-        <v>0.01075713159878926</v>
+        <v>0.00152825965080492</v>
       </c>
       <c r="T5">
-        <v>0.01075713159878926</v>
+        <v>0.001528259650804919</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H6">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I6">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J6">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.916929</v>
+        <v>1.836782666666667</v>
       </c>
       <c r="N6">
-        <v>5.750787</v>
+        <v>5.510348</v>
       </c>
       <c r="O6">
-        <v>0.03692523748731935</v>
+        <v>0.03087986864006716</v>
       </c>
       <c r="P6">
-        <v>0.03692523748731937</v>
+        <v>0.03087986864006715</v>
       </c>
       <c r="Q6">
-        <v>1.13857914884</v>
+        <v>0.3282606142733334</v>
       </c>
       <c r="R6">
-        <v>10.24721233956</v>
+        <v>2.95434552846</v>
       </c>
       <c r="S6">
-        <v>0.0110261717171862</v>
+        <v>0.003058629678311445</v>
       </c>
       <c r="T6">
-        <v>0.0110261717171862</v>
+        <v>0.003058629678311444</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H7">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I7">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J7">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.866406666666666</v>
+        <v>5.451052</v>
       </c>
       <c r="N7">
-        <v>29.59922</v>
+        <v>16.353156</v>
       </c>
       <c r="O7">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220594</v>
       </c>
       <c r="P7">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220591</v>
       </c>
       <c r="Q7">
-        <v>5.860250903733332</v>
+        <v>0.9741847581799998</v>
       </c>
       <c r="R7">
-        <v>52.7422581336</v>
+        <v>8.767662823619998</v>
       </c>
       <c r="S7">
-        <v>0.05675155112070263</v>
+        <v>0.009077148716497918</v>
       </c>
       <c r="T7">
-        <v>0.05675155112070265</v>
+        <v>0.009077148716497917</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H8">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I8">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J8">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.792572</v>
+        <v>30.10959799999999</v>
       </c>
       <c r="N8">
-        <v>53.37771600000001</v>
+        <v>90.32879399999999</v>
       </c>
       <c r="O8">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267993</v>
       </c>
       <c r="P8">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267992</v>
       </c>
       <c r="Q8">
-        <v>14.65938903366</v>
+        <v>43.67392171633666</v>
       </c>
       <c r="R8">
-        <v>131.93450130294</v>
+        <v>393.0652954470299</v>
       </c>
       <c r="S8">
-        <v>0.1419637281420878</v>
+        <v>0.4069399352875389</v>
       </c>
       <c r="T8">
-        <v>0.1419637281420878</v>
+        <v>0.4069399352875387</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H9">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I9">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J9">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>41.597088</v>
       </c>
       <c r="O9">
-        <v>0.2670908091676708</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="P9">
-        <v>0.2670908091676709</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="Q9">
-        <v>11.42401626288</v>
+        <v>20.11216893850666</v>
       </c>
       <c r="R9">
-        <v>102.81614636592</v>
+        <v>181.00952044656</v>
       </c>
       <c r="S9">
-        <v>0.110631891636849</v>
+        <v>0.1873988962907007</v>
       </c>
       <c r="T9">
-        <v>0.110631891636849</v>
+        <v>0.1873988962907006</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H10">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I10">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J10">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.60203</v>
+        <v>7.300670666666666</v>
       </c>
       <c r="N10">
-        <v>19.80609</v>
+        <v>21.902012</v>
       </c>
       <c r="O10">
-        <v>0.1271729551007925</v>
+        <v>0.122738392114831</v>
       </c>
       <c r="P10">
-        <v>0.1271729551007925</v>
+        <v>0.1227383921148309</v>
       </c>
       <c r="Q10">
-        <v>5.439445527149999</v>
+        <v>10.58961063421555</v>
       </c>
       <c r="R10">
-        <v>48.95500974434999</v>
+        <v>95.30649570793999</v>
       </c>
       <c r="S10">
-        <v>0.05267640856565917</v>
+        <v>0.09867067798942276</v>
       </c>
       <c r="T10">
-        <v>0.05267640856565919</v>
+        <v>0.09867067798942271</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H11">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I11">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J11">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.870155666666667</v>
+        <v>0.9177576666666667</v>
       </c>
       <c r="N11">
-        <v>5.610467</v>
+        <v>2.753273</v>
       </c>
       <c r="O11">
-        <v>0.036024256573886</v>
+        <v>0.01542928115796745</v>
       </c>
       <c r="P11">
-        <v>0.03602425657388601</v>
+        <v>0.01542928115796744</v>
       </c>
       <c r="Q11">
-        <v>1.540830604545</v>
+        <v>1.331205965903889</v>
       </c>
       <c r="R11">
-        <v>13.867475440905</v>
+        <v>11.980853693135</v>
       </c>
       <c r="S11">
-        <v>0.01492163531197466</v>
+        <v>0.01240376060427562</v>
       </c>
       <c r="T11">
-        <v>0.01492163531197466</v>
+        <v>0.01240376060427562</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H12">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I12">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J12">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.916929</v>
+        <v>1.836782666666667</v>
       </c>
       <c r="N12">
-        <v>5.750787</v>
+        <v>5.510348</v>
       </c>
       <c r="O12">
-        <v>0.03692523748731935</v>
+        <v>0.03087986864006716</v>
       </c>
       <c r="P12">
-        <v>0.03692523748731937</v>
+        <v>0.03087986864006715</v>
       </c>
       <c r="Q12">
-        <v>1.579367387745</v>
+        <v>2.664250196695556</v>
       </c>
       <c r="R12">
-        <v>14.214306489705</v>
+        <v>23.97825177026</v>
       </c>
       <c r="S12">
-        <v>0.01529483131633156</v>
+        <v>0.02482464958551113</v>
       </c>
       <c r="T12">
-        <v>0.01529483131633157</v>
+        <v>0.02482464958551112</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H13">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I13">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J13">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.866406666666666</v>
+        <v>5.451052</v>
       </c>
       <c r="N13">
-        <v>29.59922</v>
+        <v>16.353156</v>
       </c>
       <c r="O13">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220594</v>
       </c>
       <c r="P13">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220591</v>
       </c>
       <c r="Q13">
-        <v>8.128981784699999</v>
+        <v>7.906741840913332</v>
       </c>
       <c r="R13">
-        <v>73.16083606229999</v>
+        <v>71.16067656822</v>
       </c>
       <c r="S13">
-        <v>0.07872228218415801</v>
+        <v>0.07367254614721226</v>
       </c>
       <c r="T13">
-        <v>0.07872228218415804</v>
+        <v>0.07367254614721222</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H14">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I14">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J14">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.792572</v>
+        <v>30.10959799999999</v>
       </c>
       <c r="N14">
-        <v>53.37771600000001</v>
+        <v>90.32879399999999</v>
       </c>
       <c r="O14">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267993</v>
       </c>
       <c r="P14">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267992</v>
       </c>
       <c r="Q14">
-        <v>10.163668696132</v>
+        <v>5.271889513819999</v>
       </c>
       <c r="R14">
-        <v>91.47301826518799</v>
+        <v>47.44700562438</v>
       </c>
       <c r="S14">
-        <v>0.09842649624693739</v>
+        <v>0.04912181671092018</v>
       </c>
       <c r="T14">
-        <v>0.09842649624693739</v>
+        <v>0.04912181671092015</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H15">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I15">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J15">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>41.597088</v>
       </c>
       <c r="O15">
-        <v>0.2670908091676708</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="P15">
-        <v>0.2670908091676709</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="Q15">
-        <v>7.920515391775999</v>
+        <v>2.42774471264</v>
       </c>
       <c r="R15">
-        <v>71.28463852598398</v>
+        <v>21.84970241376</v>
       </c>
       <c r="S15">
-        <v>0.07670346228219138</v>
+        <v>0.02262096549682726</v>
       </c>
       <c r="T15">
-        <v>0.0767034622821914</v>
+        <v>0.02262096549682725</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>20</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H16">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I16">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J16">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.60203</v>
+        <v>7.300670666666666</v>
       </c>
       <c r="N16">
-        <v>19.80609</v>
+        <v>21.902012</v>
       </c>
       <c r="O16">
-        <v>0.1271729551007925</v>
+        <v>0.122738392114831</v>
       </c>
       <c r="P16">
-        <v>0.1271729551007925</v>
+        <v>0.1227383921148309</v>
       </c>
       <c r="Q16">
-        <v>3.77128419893</v>
+        <v>1.278274427026667</v>
       </c>
       <c r="R16">
-        <v>33.94155779037</v>
+        <v>11.50446984324</v>
       </c>
       <c r="S16">
-        <v>0.0365216833753528</v>
+        <v>0.01191056108935069</v>
       </c>
       <c r="T16">
-        <v>0.03652168337535282</v>
+        <v>0.01191056108935069</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H17">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I17">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J17">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.870155666666667</v>
+        <v>0.9177576666666667</v>
       </c>
       <c r="N17">
-        <v>5.610467</v>
+        <v>2.753273</v>
       </c>
       <c r="O17">
-        <v>0.036024256573886</v>
+        <v>0.01542928115796745</v>
       </c>
       <c r="P17">
-        <v>0.03602425657388601</v>
+        <v>0.01542928115796744</v>
       </c>
       <c r="Q17">
-        <v>1.068290891625666</v>
+        <v>0.1606901898566667</v>
       </c>
       <c r="R17">
-        <v>9.614618024630998</v>
+        <v>1.44621170871</v>
       </c>
       <c r="S17">
-        <v>0.01034548966312208</v>
+        <v>0.001497260902886906</v>
       </c>
       <c r="T17">
-        <v>0.01034548966312208</v>
+        <v>0.001497260902886905</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H18">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I18">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J18">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.916929</v>
+        <v>1.836782666666667</v>
       </c>
       <c r="N18">
-        <v>5.750787</v>
+        <v>5.510348</v>
       </c>
       <c r="O18">
-        <v>0.03692523748731935</v>
+        <v>0.03087986864006716</v>
       </c>
       <c r="P18">
-        <v>0.03692523748731937</v>
+        <v>0.03087986864006715</v>
       </c>
       <c r="Q18">
-        <v>1.095009269599</v>
+        <v>0.3216022771066667</v>
       </c>
       <c r="R18">
-        <v>9.855083426390998</v>
+        <v>2.89442049396</v>
       </c>
       <c r="S18">
-        <v>0.01060423445380158</v>
+        <v>0.002996589376244585</v>
       </c>
       <c r="T18">
-        <v>0.01060423445380159</v>
+        <v>0.002996589376244584</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H19">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I19">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J19">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.866406666666666</v>
+        <v>5.451052</v>
       </c>
       <c r="N19">
-        <v>29.59922</v>
+        <v>16.353156</v>
       </c>
       <c r="O19">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220594</v>
       </c>
       <c r="P19">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220591</v>
       </c>
       <c r="Q19">
-        <v>5.635997346606666</v>
+        <v>0.9544246946799999</v>
       </c>
       <c r="R19">
-        <v>50.72397611945999</v>
+        <v>8.589822252119999</v>
       </c>
       <c r="S19">
-        <v>0.05457984594624231</v>
+        <v>0.008893030628495767</v>
       </c>
       <c r="T19">
-        <v>0.05457984594624232</v>
+        <v>0.008893030628495762</v>
       </c>
     </row>
   </sheetData>
